--- a/Unity/ExcelConfig/GameCfg.xlsx
+++ b/Unity/ExcelConfig/GameCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Project\U3D\FFramework\Unity\ExcelConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F94763-F891-4359-A670-606D9985A804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5F34BB-F06B-4A5B-A1AD-0B8D5233BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,35 +71,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enemyDensity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人密度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>missileMoveMaxSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>missileAcc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>missileRotSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导弹最大速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹加速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹旋转速度</t>
+    <t>planeStableSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定航速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹转向速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +428,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
     <col min="5" max="5" width="18.109375" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
     <col min="9" max="9" width="17.88671875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
@@ -479,28 +479,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -508,19 +508,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -534,31 +534,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
